--- a/SICSA/ENTREGABLES/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\AUDITORIAS\ENTREGABLES\Matris de Pruebas Catálogos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SICSA\ENTREGABLES\Matris de Pruebas Catálogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="98">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Noe Treviño</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodolfo Zuñiga </t>
-  </si>
-  <si>
     <t>Cuenta de Estatus de Prueba</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t xml:space="preserve">Ortagrafía </t>
   </si>
   <si>
-    <t>Ingresa al sitio web solo que si pasa un tiempo</t>
-  </si>
-  <si>
     <t>Ingresar al catálogo</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t xml:space="preserve">Filtra por paginación </t>
   </si>
   <si>
-    <t xml:space="preserve">Sin faltas de Ortografía </t>
-  </si>
-  <si>
     <t>Ingresa al catálogo</t>
   </si>
   <si>
@@ -349,9 +340,6 @@
     <t xml:space="preserve">Proyecto: Sistema de Control de Seguimiento de Auditorias </t>
   </si>
   <si>
-    <t>http://10.200.4.165:93/</t>
-  </si>
-  <si>
     <t>disrec</t>
   </si>
   <si>
@@ -389,6 +377,45 @@
   </si>
   <si>
     <t>Área Auditora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona </t>
+  </si>
+  <si>
+    <t>http://10.200.4.165/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresa al sitio wed correspondiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrega Registro, pero la hora de creación y de editar no coinsiden en tiempo real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar acentos, redactar mensaje de alerta esta en ingles al agregar mas de 4 digitos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita registro. Ajustar hora de edición esta una hora atrasada </t>
+  </si>
+  <si>
+    <t>https://sfytgenl.atlassian.net/browse/SICSA-163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leslie Lucio </t>
+  </si>
+  <si>
+    <t>EL mensaje de confirmación
+al crear, eliminar, y actualizar tienen el mismo mensaje de consulta exitosa. Ajustar la
+redacción para cada unade las funcionalidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL mensaje de confirmación
+al crear, eliminar, y actualizar tienen el mismo mensaje de consulta exitosa. Ajustar la
+redacción para cada unade las funcionalidades. Agregar acento en Última y Descripción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL mensaje de confirmación
+al crear, eliminar, y actualizar tienen el mismo mensaje de consulta exitosa. Ajustar la
+redacción para cada unade las funcionalidades. Agregar acento en Última  </t>
   </si>
 </sst>
 </file>
@@ -756,10 +783,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,7 +840,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -899,13 +926,7 @@
               <a:rPr lang="es-MX" sz="1800" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" sz="1800">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Configuración-&gt; Catálogos</a:t>
+              <a:t> Sistema de Contro de Seguimiento de Auditorias </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -937,7 +958,7 @@
               <a:rPr lang="es-MX" sz="1800">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>PABMI Bienes Muebles</a:t>
+              <a:t>Catálogos</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -969,6 +990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,8 +1509,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-6.0051606849636403E-2"/>
-              <c:y val="-8.771929824561403E-2"/>
+              <c:x val="-0.12069884339813938"/>
+              <c:y val="-0.10416666666666667"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -1526,7 +1548,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1590,7 +1614,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1711,7 +1737,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1721,8 +1749,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0051606849636403E-2"/>
-                  <c:y val="-8.771929824561403E-2"/>
+                  <c:x val="-0.12069884339813938"/>
+                  <c:y val="-0.10416666666666667"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1732,7 +1760,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1812,10 +1842,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,6 +2019,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2147,9 +2178,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7032476706302647E-2"/>
-          <c:y val="0.1315509693558474"/>
-          <c:w val="0.90138830770502421"/>
+          <c:x val="7.7157243756547603E-2"/>
+          <c:y val="0.11278924327704817"/>
+          <c:w val="0.8556086497771469"/>
           <c:h val="0.79638332028383885"/>
         </c:manualLayout>
       </c:layout>
@@ -2222,9 +2253,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2377,6 +2405,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,6 +2526,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3440922190201729"/>
+          <c:y val="6.020469596628537E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3146,8 +3183,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9889264463425781E-2"/>
-          <c:y val="0.11249002514059614"/>
+          <c:x val="5.1640684683866969E-2"/>
+          <c:y val="7.0346737964196382E-2"/>
           <c:w val="0.86906607524539548"/>
           <c:h val="0.78287642154004666"/>
         </c:manualLayout>
@@ -3205,21 +3242,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:f>GRAFICOS!$A$49:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Leslie Lucio </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$49:$B$50</c:f>
+              <c:f>GRAFICOS!$B$49:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3278,22 +3318,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:f>GRAFICOS!$A$49:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Leslie Lucio </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$C$49:$C$50</c:f>
+              <c:f>GRAFICOS!$C$49:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3301,7 +3344,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBA9-4284-B018-BA319FBDCD7F}"/>
+              <c16:uniqueId val="{00000000-667B-40CA-BFCB-785DC03CE501}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3446,6 +3489,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5413,7 +5457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
@@ -5445,13 +5489,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5517,13 +5561,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45145.678899652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45156.493545370373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N18" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5538,30 +5582,31 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
         <s v="Realizado"/>
         <s v="Error"/>
-        <s v="Ingresar "/>
-        <m/>
+        <m u="1"/>
         <s v="Pendiente" u="1"/>
+        <s v="Ingresar " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="102" maxValue="102"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <m/>
-        <s v="Noe Treviño"/>
+        <s v="Leslie Lucio "/>
+        <s v="Noe Treviño" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
@@ -5573,8 +5618,8 @@
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-07T00:00:00" maxDate="2023-08-08T00:00:00"/>
+    <cacheField name="Fecha " numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-08-18T00:00:00" maxDate="2023-08-19T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5586,33 +5631,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="112">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
   <r>
     <n v="1"/>
-    <s v="Ingresar sitio wed"/>
-    <s v="http://10.200.4.106 "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Ingresar sitio web"/>
+    <s v="http://10.200.4.165/"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso Correctamente al sistema"/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresa al sitio wed correspondiente "/>
+    <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-08-18T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="irisc"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="disrec"/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Ingreso correctamente con el usuario correspondiente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Direcciona "/>
+    <s v="Ingresar "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5621,62 +5666,14 @@
   </r>
   <r>
     <n v="3"/>
-    <s v="Aplicación PABMI"/>
-    <s v="PABMI"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Aplicación Auditorias "/>
+    <m/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos."/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-496"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Principal "/>
-    <s v="Menú Inicio"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Despliegue"/>
-    <x v="1"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se selecciona la opción de “Configuración” enseguida se muestra un nuevo menú con dos opciones y se elige la opción de Catálogos, al dar clic se espera que el menú inicial se cierre, pero este no lo hace se queda en pantalla y se tiene que dar clic en la parte derecha para que se cierre"/>
-    <s v="Despliegue de menú"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-519"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Inicio"/>
-    <s v="Inicio "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Inicio "/>
-    <x v="1"/>
-    <s v="Al querer regresar al menú inicio no ejecuta la acción "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-520"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Configuración "/>
-    <s v="Catálogos "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingreso Correctamente "/>
-    <s v="Ingresar al apartado correspondiente "/>
+    <s v="Ingresar a  la plataforma"/>
+    <s v="Ingresar plataforma PAUA"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5684,31 +5681,31 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <n v="4"/>
+    <s v="Principal "/>
     <s v="Catálogos "/>
-    <s v="Activo"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Pantalla Inicio "/>
     <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar Correctamente "/>
+    <s v="Ingresa al menú correctamente"/>
+    <s v="Ingresar al Menú Catálogos "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-796"/>
-    <d v="2023-08-04T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
+    <n v="5"/>
+    <s v="Catálogos "/>
+    <s v="Años Fiscales "/>
+    <s v="Administrador "/>
+    <s v="disrec"/>
+    <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Mando un error al ingresar el regristro 11"/>
-    <m/>
+    <s v="Ingresa al catálogo"/>
+    <s v="Ingresar al catálogo"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5721,15 +5718,15 @@
     <m/>
     <m/>
     <m/>
-    <s v="Eliminar"/>
+    <s v="Agregar"/>
     <x v="1"/>
-    <s v="Redactar correctamente la preguta en el mensaje de confirmación "/>
-    <s v="Eliminar Registro "/>
-    <m/>
+    <s v="Agrega Registro, pero la hora de creación y de editar no coinsiden en tiempo real "/>
+    <s v="Agrega Registro "/>
+    <n v="102"/>
     <x v="1"/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-163"/>
+    <d v="2023-08-18T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5739,24 +5736,8 @@
     <m/>
     <s v="Editar"/>
     <x v="1"/>
-    <s v="Editar registro esta arrojando un error se tienen que dar tres clicks para confirmar lo que se esta editando "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Edita registro. Ajustar hora de edición esta una hora atrasada "/>
+    <s v="Edita Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5769,106 +5750,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="AREA lleva acento ÁREA  "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
+    <s v="Eliminar "/>
     <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Catálogos "/>
-    <s v="Presentación Muebles "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-818"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Elimina registro "/>
+    <s v="Elimina Registro "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5881,106 +5766,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
+    <s v="Buscar "/>
     <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proceso"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-816"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Busca registro "/>
+    <s v="Buscar registros "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -5993,106 +5782,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
+    <s v="Filtrado "/>
     <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Transacción"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-819"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Filtrado"/>
+    <s v="Filtra registro con los caracteres requerido "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6105,106 +5798,10 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
+    <s v="Filas por Página "/>
     <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Catálogos "/>
-    <s v="Modelos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-802 "/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Botón Agregar campo Marca el recuadro de selección se empalma con la palabra Marca _x000a_"/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
+    <s v="Filtra por paginación "/>
+    <s v="Filtra por Pagina "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -6217,1173 +5814,21 @@
     <m/>
     <m/>
     <m/>
-    <s v="Ortografía"/>
+    <s v="Ortagrafía "/>
     <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
+    <s v="Agregar acentos, redactar mensaje de alerta esta en ingles al agregar mas de 4 digitos  "/>
     <s v="Buena Ortografía "/>
-    <m/>
+    <n v="102"/>
     <x v="1"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Catálogos "/>
-    <s v="Tipos de Activo Fijo "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-820"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Bien"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-814"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Proveedor"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="2"/>
-    <s v="Realizado"/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-817"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Catálogos "/>
-    <s v="Motivos de Baja"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-803"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Catálogos "/>
-    <s v="Estatus de Resguardos"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-797"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="0"/>
-    <s v="Agrega Registros "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="Elimina registro modificar la redacción del mensaje de confirmación "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="Se detecta un fallo al aceptar la edición de regisro  se ledan mas de tres clics para ejecutar la operación "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Catálogos "/>
-    <s v="Líneas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-798"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Se agregan registros solo que envió un error en pantalla "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Comprobante"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-815"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Catálogos "/>
-    <s v="Tipo de Reportes"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <s v="Ingresar al apartado correspondiente "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-818"/>
-    <d v="2023-08-07T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Agrega Registro Mensaje de confirmación se queda "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Catálogos "/>
-    <s v="Marcas"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="0"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-800"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Mensaje de confirmación aparece por mas de 5 segundos en pantalla "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Catálogos "/>
-    <s v="Procesos Steps "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
-    <s v="Ingresar "/>
-    <x v="1"/>
-    <s v="Ingresa al apartado pero al regresar de catálogos a configuración y configuración a inicio no regresa "/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-813"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Arroja un error al ingresar al menú no permite realizar otra función "/>
-    <s v="Agregar registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Eliminar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Eliminar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="color botón de acción "/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Cancelar"/>
-    <x v="0"/>
-    <s v="Cancela registro "/>
-    <s v="Cancelar Registro "/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Ortografía"/>
-    <x v="1"/>
-    <s v="Redactar mensajes de confirmacion de acciones "/>
-    <s v="Buena Ortografía "/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Exportar"/>
-    <x v="0"/>
-    <s v="Exportar archivo "/>
-    <s v="Exportar Archivo "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="https://sfytgenl.atlassian.net/browse/SICSA-163"/>
+    <d v="2023-08-18T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -7448,7 +5893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7460,10 +5905,10 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item x="1"/>
-        <item m="1" x="4"/>
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7555,8 +6000,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7569,9 +6014,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7588,9 +6034,12 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -7911,7 +6360,7 @@
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7933,7 +6382,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -7967,13 +6416,13 @@
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
       <c r="E3" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
@@ -8065,37 +6514,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="13"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>45156</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -8105,13 +6556,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -8119,7 +6570,9 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
@@ -8132,14 +6585,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -8148,10 +6601,10 @@
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="J9" s="20"/>
       <c r="M9" s="14"/>
@@ -8168,53 +6621,59 @@
         <v>19</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>82</v>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J10" s="20"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -8222,16 +6681,33 @@
       <c r="F12" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="23" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="J12">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -8239,265 +6715,339 @@
       <c r="F13" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="23" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J18">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45156</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>81</v>
+      <c r="C19" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J26">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45156</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>7</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -8505,15 +7055,18 @@
       <c r="F28" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -8521,121 +7074,157 @@
       <c r="F29" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+        <v>65</v>
+      </c>
+      <c r="J34">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
         <v>8</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -8643,15 +7232,18 @@
       <c r="F36" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -8659,121 +7251,157 @@
       <c r="F37" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
+        <v>65</v>
+      </c>
+      <c r="J42">
+        <v>102</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="44">
         <v>9</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -8781,15 +7409,18 @@
       <c r="F44" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
       <c r="H44" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -8797,121 +7428,157 @@
       <c r="F45" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
+        <v>65</v>
+      </c>
+      <c r="J50">
+        <v>102</v>
+      </c>
+      <c r="K50" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>10</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -8919,15 +7586,18 @@
       <c r="F52" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
       <c r="H52" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -8935,121 +7605,157 @@
       <c r="F53" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
       <c r="H53" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="26">
+        <v>65</v>
+      </c>
+      <c r="J58">
+        <v>102</v>
+      </c>
+      <c r="K58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N58" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="25">
         <v>11</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
       <c r="H59" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -9057,15 +7763,18 @@
       <c r="F60" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
       <c r="H60" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -9073,121 +7782,157 @@
       <c r="F61" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
       <c r="H61" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="25">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>102</v>
+      </c>
+      <c r="K66" t="s">
+        <v>94</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="44">
         <v>12</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
       <c r="H67" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="44"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
@@ -9195,15 +7940,18 @@
       <c r="F68" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
       <c r="H68" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="44"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
@@ -9211,94 +7959,127 @@
       <c r="F69" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
       <c r="H69" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="44"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="44"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="44"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="44"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="44"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="J74">
+        <v>102</v>
+      </c>
+      <c r="K74" t="s">
+        <v>94</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N74" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>13</v>
       </c>
@@ -9306,25 +8087,28 @@
         <v>19</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
       <c r="H75" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -9333,14 +8117,17 @@
       <c r="F76" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
       <c r="H76" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -9349,94 +8136,127 @@
       <c r="F77" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
       <c r="H77" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
       <c r="F79" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="J82">
+        <v>102</v>
+      </c>
+      <c r="K82" t="s">
+        <v>94</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N82" s="1">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="24">
         <v>14</v>
       </c>
@@ -9444,25 +8264,28 @@
         <v>19</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="23" t="s">
         <v>15</v>
       </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
       <c r="H83" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -9471,14 +8294,17 @@
       <c r="F84" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
       <c r="H84" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -9487,122 +8313,148 @@
       <c r="F85" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
       <c r="H85" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
       <c r="F86" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
       <c r="F89" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J90">
+        <v>102</v>
+      </c>
+      <c r="K90" t="s">
+        <v>94</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N90" s="1">
+        <v>45156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="A59:A66"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="E51:E58"/>
     <mergeCell ref="D51:D58"/>
@@ -9613,64 +8465,76 @@
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="E83:E90"/>
-    <mergeCell ref="D83:D90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M12" r:id="rId2"/>
+    <hyperlink ref="M18" r:id="rId3"/>
+    <hyperlink ref="M26" r:id="rId4"/>
+    <hyperlink ref="M34" r:id="rId5"/>
+    <hyperlink ref="M42" r:id="rId6"/>
+    <hyperlink ref="M50" r:id="rId7"/>
+    <hyperlink ref="M58" r:id="rId8"/>
+    <hyperlink ref="M66" r:id="rId9"/>
+    <hyperlink ref="M74" r:id="rId10"/>
+    <hyperlink ref="M82" r:id="rId11"/>
+    <hyperlink ref="M90" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$1:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K20:K55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Datos!$C$1:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>L20:L55</xm:sqref>
+          <xm:sqref>K20:K25 K27:K33 K35:K41 K43:K49 K51:K55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G90</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K19</xm:sqref>
+          <xm:sqref>K7:K12 K14:K19 K26 K34 K42 K50 K58 K66 K74 K82 K90 K6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L19</xm:sqref>
+          <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9680,16 +8544,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D50"/>
+  <dimension ref="A3:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
@@ -9705,7 +8569,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9713,7 +8577,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="16">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9721,7 +8585,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="17">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9729,7 +8593,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="18">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9744,17 +8608,13 @@
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16">
-        <v>11</v>
-      </c>
+      <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="18">
-        <v>11</v>
-      </c>
+      <c r="B26" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -9783,22 +8643,30 @@
         <v>31</v>
       </c>
       <c r="B49" s="19"/>
-      <c r="C49" s="19">
-        <v>2</v>
-      </c>
-      <c r="D49" s="19">
-        <v>2</v>
-      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19">
         <v>2</v>
       </c>
       <c r="D50" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19">
+        <v>2</v>
+      </c>
+      <c r="D51" s="19">
         <v>2</v>
       </c>
     </row>
@@ -9815,7 +8683,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9908,7 +8776,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" s="15" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/SICSA/ENTREGABLES/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
+++ b/SICSA/ENTREGABLES/Matris de Pruebas Catálogos/Matriz de Pruebas Catálogos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogos" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="98">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -514,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -701,30 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,7 +708,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,9 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,7 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,10 +755,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,7 +812,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1726,29 +1698,6 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.9756040347173346E-2"/>
-                  <c:y val="-2.4671052631578948E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
                   <c:x val="-0.12069884339813938"/>
                   <c:y val="-0.10416666666666667"/>
                 </c:manualLayout>
@@ -1764,7 +1713,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1823,13 +1772,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$6</c:f>
+              <c:f>GRAFICOS!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1837,15 +1783,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$6</c:f>
+              <c:f>GRAFICOS!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +1962,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2238,18 +2180,18 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$25:$A$26</c:f>
+              <c:f>GRAFICOS!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$25:$B$26</c:f>
+              <c:f>GRAFICOS!$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2405,7 +2347,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3278,7 +3219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3489,7 +3430,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5561,7 +5501,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45156.493545370373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45176.508887268516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:N18" sheet="Catálogos"/>
   </cacheSource>
@@ -5587,10 +5527,10 @@
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
         <s v="Realizado"/>
-        <s v="Error"/>
         <m u="1"/>
+        <s v="Ingresar " u="1"/>
         <s v="Pendiente" u="1"/>
-        <s v="Ingresar " u="1"/>
+        <s v="Error" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
@@ -5610,9 +5550,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="3">
         <m/>
-        <s v="Tarea por hacer"/>
+        <s v="Finalizada "/>
+        <s v="Tarea por hacer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
@@ -5719,7 +5660,7 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Agrega Registro, pero la hora de creación y de editar no coinsiden en tiempo real "/>
     <s v="Agrega Registro "/>
     <n v="102"/>
@@ -5735,7 +5676,7 @@
     <m/>
     <m/>
     <s v="Editar"/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Edita registro. Ajustar hora de edición esta una hora atrasada "/>
     <s v="Edita Registro "/>
     <m/>
@@ -5815,7 +5756,7 @@
     <m/>
     <m/>
     <s v="Ortagrafía "/>
-    <x v="1"/>
+    <x v="0"/>
     <s v="Agregar acentos, redactar mensaje de alerta esta en ingles al agregar mas de 4 digitos  "/>
     <s v="Buena Ortografía "/>
     <n v="102"/>
@@ -5828,73 +5769,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5904,11 +5780,11 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
-        <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="3"/>
         <item x="0"/>
+        <item h="1" m="1" x="1"/>
         <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5923,10 +5799,7 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -5999,8 +5872,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:D51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6022,8 +5895,9 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
+        <item m="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -6053,7 +5927,7 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6098,6 +5972,69 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6356,11 +6293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6381,136 +6318,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6524,7 +6461,7 @@
       <c r="C7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
@@ -6542,8 +6479,8 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="J7" s="12"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="1">
         <v>45156</v>
       </c>
@@ -6552,13 +6489,13 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
@@ -6576,19 +6513,19 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="M8" s="14"/>
+      <c r="J8" s="18"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
@@ -6606,8 +6543,8 @@
       <c r="I9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="M9" s="14"/>
+      <c r="J9" s="18"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -6620,7 +6557,7 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
@@ -6638,56 +6575,56 @@
       <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="18"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="21" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="J12">
@@ -6697,7 +6634,7 @@
         <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>93</v>
@@ -6707,121 +6644,121 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="21" t="s">
         <v>60</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="21" t="s">
         <v>61</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="21" t="s">
         <v>63</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="21" t="s">
         <v>64</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J18">
@@ -6831,7 +6768,7 @@
         <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>93</v>
@@ -6841,164 +6778,164 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>6</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J26">
@@ -7008,7 +6945,7 @@
         <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>93</v>
@@ -7018,164 +6955,164 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>7</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J34">
@@ -7185,7 +7122,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>93</v>
@@ -7195,164 +7132,164 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="44">
+      <c r="A35" s="23">
         <v>8</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="23" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G42" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J42">
@@ -7372,164 +7309,164 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="44">
+      <c r="A43" s="23">
         <v>9</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="23" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="23" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="23" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="I49" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J50">
@@ -7539,7 +7476,7 @@
         <v>94</v>
       </c>
       <c r="L50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>93</v>
@@ -7549,164 +7486,164 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <v>10</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="I52" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="23" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="23" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="I54" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="23" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="I57" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J58">
@@ -7716,7 +7653,7 @@
         <v>94</v>
       </c>
       <c r="L58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>93</v>
@@ -7726,164 +7663,164 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="25">
+      <c r="A59" s="24">
         <v>11</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="23" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="23" t="s">
+      <c r="I61" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I62" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="23" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="I65" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G66" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H66" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I66" s="23" t="s">
+      <c r="I66" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J66">
@@ -7903,164 +7840,164 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="44">
+      <c r="A67" s="23">
         <v>12</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="I67" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="I68" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I69" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="23" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H73" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="23" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J74">
@@ -8070,7 +8007,7 @@
         <v>94</v>
       </c>
       <c r="L74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>93</v>
@@ -8080,164 +8017,164 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
+      <c r="A75" s="22">
         <v>13</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="23" t="s">
+      <c r="H75" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="I75" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="23" t="s">
+      <c r="H76" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I76" s="23" t="s">
+      <c r="I76" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="23" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="H77" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="23" t="s">
+      <c r="I77" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H78" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H79" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I79" s="23" t="s">
+      <c r="I79" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="23" t="s">
+      <c r="H80" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H81" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I81" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J82">
@@ -8247,7 +8184,7 @@
         <v>94</v>
       </c>
       <c r="L82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M82" s="5" t="s">
         <v>93</v>
@@ -8257,164 +8194,164 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="24">
+      <c r="A83" s="22">
         <v>14</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="23" t="s">
+      <c r="H83" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I83" s="23" t="s">
+      <c r="I83" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23" t="s">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="H84" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="23" t="s">
+      <c r="I84" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="23" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="23" t="s">
+      <c r="H87" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="23" t="s">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="23" t="s">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="23" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="21" t="s">
         <v>65</v>
       </c>
       <c r="J90">
@@ -8424,7 +8361,7 @@
         <v>94</v>
       </c>
       <c r="L90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M90" s="5" t="s">
         <v>93</v>
@@ -8435,26 +8372,33 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E83:E90"/>
-    <mergeCell ref="D83:D90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="E51:E58"/>
     <mergeCell ref="D51:D58"/>
@@ -8465,33 +8409,26 @@
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="C43:C50"/>
     <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="A83:A90"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8546,7 +8483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -8554,7 +8491,7 @@
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -8574,25 +8511,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B5" s="16">
         <v>12</v>
       </c>
     </row>
@@ -8605,16 +8534,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>27</v>
+      <c r="A25" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="16"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -8632,7 +8555,7 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -8642,19 +8565,19 @@
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17">
         <v>2</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="17">
         <v>2</v>
       </c>
     </row>
@@ -8662,11 +8585,11 @@
       <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17">
         <v>2</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="17">
         <v>2</v>
       </c>
     </row>
@@ -8710,7 +8633,7 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8721,7 +8644,7 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8732,7 +8655,7 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8740,42 +8663,42 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>94</v>
       </c>
     </row>
